--- a/Género/Violencia contra Mujer/27.3.xlsx
+++ b/Género/Violencia contra Mujer/27.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB13C2B-DEA2-4D2C-951D-3FA65AB7B7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9500CF53-4998-4649-A513-5AC012635277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7055D139-B5E0-4249-8A75-EC5859DE3028}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="30">
   <si>
     <t>Región</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Biobío</t>
   </si>
   <si>
-    <t>La Araucanía</t>
-  </si>
-  <si>
     <t>Los Ríos</t>
   </si>
   <si>
@@ -96,126 +93,6 @@
   </si>
   <si>
     <t>Antes o durante los últimos 12 meses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuente: Encuesta Nacional de Victimización por Violencia Intrafamiliar y Delitos Sexuales, Subsecretaría de Prevención del Delito, Ministerio del Interior y Seguridad Pública - Chile.  </t>
-  </si>
-  <si>
-    <t>Nota:</t>
-  </si>
-  <si>
-    <t>a: estimación poco fiable (coeficiente de variación mayor a 15% y menor o igual a 30%. En el caso de estimaciones de razón, si no cumple con el umbral de aceptación asociado a su error estándar).</t>
-  </si>
-  <si>
-    <t>b: estimación no fiable (número de casos muestrales menor a 60, grados de libertad menores a 9 o coeficiente de variación mayor a 30%).</t>
-  </si>
-  <si>
-    <t>Vacío: la estimación es fiable.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Para garantizar la comparabilidad, se recalcularon los indicadores 2012 según metodología de cálculo de prevalencias 2017. Es decir, la persona informante es considerada en el cálculo del indicador siempre que haya declarado ocurrencia de violencia al menos una vez respecto al período de referencia de la pregunta.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Debido a cambios en la división administrativa de Chile, la región del Biobío en 2020 presenta una configuración distinta respecto a la de años anteriores, estando conformada por tres provincias en vez de seis (Arauco, Biobío y Concepción).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> La nota hace referencia a los resultados de la implementación del </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Estándar para la evaluación de la calidad de las estimaciones de encuestas de hogares</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2020). La simbología es la siguiente:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> La región de Ñuble está compuesta por 3 provincias que anteriormente formaban parte de la región del Biobío (Itata, Diguillín y Punilla).</t>
-    </r>
   </si>
   <si>
     <t>Id_producto</t>
@@ -247,12 +124,15 @@
   <si>
     <t>ID_cuándo</t>
   </si>
+  <si>
+    <t>Araucanía</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,50 +142,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -342,9 +178,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -354,12 +189,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079CE407-D701-4B8E-9C54-B43BA6D467F3}">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,35 +546,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>32</v>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -762,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>12.105270521735481</v>
@@ -771,13 +600,13 @@
         <v>270104</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>270104001</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -794,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>30.078128557386751</v>
@@ -803,13 +632,13 @@
         <v>270104</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>270104001</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -826,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>47.609951601000503</v>
@@ -835,13 +664,13 @@
         <v>270104</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I4">
         <v>270104001</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -858,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>10.504666097687238</v>
@@ -867,13 +696,13 @@
         <v>270104</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>270104001</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -890,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>17.62049783215506</v>
@@ -899,13 +728,13 @@
         <v>270104</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>270104001</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -922,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>26.441878084195992</v>
@@ -931,13 +760,13 @@
         <v>270104</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I7">
         <v>270104001</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -954,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>22.401956577705313</v>
@@ -963,13 +792,13 @@
         <v>270104</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I8">
         <v>270104001</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -986,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>45.652528702007949</v>
@@ -995,13 +824,13 @@
         <v>270104</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I9">
         <v>270104001</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1018,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>34.427672165919617</v>
@@ -1027,13 +856,13 @@
         <v>270104</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I10">
         <v>270104001</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1050,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>17.577018793443749</v>
@@ -1059,13 +888,13 @@
         <v>270104</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I11">
         <v>270104001</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1082,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>19.700190860678688</v>
@@ -1091,13 +920,13 @@
         <v>270104</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I12">
         <v>270104001</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>24.717096562942697</v>
@@ -1123,13 +952,13 @@
         <v>270104</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>270104001</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1146,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14">
         <v>33.995341642515513</v>
@@ -1155,13 +984,13 @@
         <v>270104</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I14">
         <v>270104001</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1178,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <v>19.209229145000698</v>
@@ -1187,13 +1016,13 @@
         <v>270104</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I15">
         <v>270104001</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1210,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16">
         <v>38.870144250006966</v>
@@ -1219,13 +1048,13 @@
         <v>270104</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I16">
         <v>270104001</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1242,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>17.339046636914816</v>
@@ -1251,13 +1080,13 @@
         <v>270104</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I17">
         <v>270104001</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1274,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>12.252849429128224</v>
@@ -1283,13 +1112,13 @@
         <v>270104</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I18">
         <v>270104001</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1306,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>21.908910404769447</v>
@@ -1315,13 +1144,13 @@
         <v>270104</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <v>270104001</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1338,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>31.167817796937531</v>
@@ -1347,13 +1176,13 @@
         <v>270104</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I20">
         <v>270104001</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1370,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21">
         <v>29.780703659284452</v>
@@ -1379,13 +1208,13 @@
         <v>270104</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I21">
         <v>270104001</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1402,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22">
         <v>46.53479574857063</v>
@@ -1411,13 +1240,13 @@
         <v>270104</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I22">
         <v>270104001</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1434,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>14.180534309862637</v>
@@ -1443,13 +1272,13 @@
         <v>270104</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I23">
         <v>270104001</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1466,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>22.66793932816141</v>
@@ -1475,13 +1304,13 @@
         <v>270104</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I24">
         <v>270104001</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1498,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>29.481550870855816</v>
@@ -1507,13 +1336,13 @@
         <v>270104</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I25">
         <v>270104001</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1530,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26">
         <v>31.513645101919096</v>
@@ -1539,13 +1368,13 @@
         <v>270104</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I26">
         <v>270104001</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1562,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>28.08164625289395</v>
@@ -1571,13 +1400,13 @@
         <v>270104</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I27">
         <v>270104001</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1594,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28">
         <v>38.390404827198417</v>
@@ -1603,13 +1432,13 @@
         <v>270104</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I28">
         <v>270104001</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1626,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>24.928517123892561</v>
@@ -1635,13 +1464,13 @@
         <v>270104</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I29">
         <v>270104001</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1658,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>21.794223045402674</v>
@@ -1667,13 +1496,13 @@
         <v>270104</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I30">
         <v>270104001</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1690,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>23.397448255532971</v>
@@ -1699,13 +1528,13 @@
         <v>270104</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I31">
         <v>270104001</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1722,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32">
         <v>35.360900867638918</v>
@@ -1731,13 +1560,13 @@
         <v>270104</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I32">
         <v>270104001</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1754,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33">
         <v>40.570420114741339</v>
@@ -1763,13 +1592,13 @@
         <v>270104</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I33">
         <v>270104001</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1786,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34">
         <v>41.143609224806646</v>
@@ -1795,13 +1624,13 @@
         <v>270104</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I34">
         <v>270104001</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1818,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>11.677127561380839</v>
@@ -1827,13 +1656,13 @@
         <v>270104</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I35">
         <v>270104001</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1850,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36">
         <v>23.541059614314346</v>
@@ -1859,13 +1688,13 @@
         <v>270104</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I36">
         <v>270104001</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1882,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37">
         <v>19.74580979140147</v>
@@ -1891,13 +1720,13 @@
         <v>270104</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I37">
         <v>270104001</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1914,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38">
         <v>24.291399108664162</v>
@@ -1923,13 +1752,13 @@
         <v>270104</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I38">
         <v>270104001</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1946,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39">
         <v>17.781721543574914</v>
@@ -1955,13 +1784,13 @@
         <v>270104</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I39">
         <v>270104001</v>
       </c>
       <c r="J39" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1978,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40">
         <v>47.980869252333584</v>
@@ -1987,13 +1816,13 @@
         <v>270104</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I40">
         <v>270104001</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2010,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41">
         <v>17.856131957664324</v>
@@ -2019,13 +1848,13 @@
         <v>270104</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I41">
         <v>270104001</v>
       </c>
       <c r="J41" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2042,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>14.317743429517742</v>
@@ -2051,13 +1880,13 @@
         <v>270104</v>
       </c>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I42">
         <v>270104001</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2074,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43">
         <v>25.522277383377141</v>
@@ -2083,13 +1912,13 @@
         <v>270104</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I43">
         <v>270104001</v>
       </c>
       <c r="J43" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2106,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44">
         <v>43.892757660167128</v>
@@ -2115,13 +1944,13 @@
         <v>270104</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I44">
         <v>270104001</v>
       </c>
       <c r="J44" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2138,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45">
         <v>26.435461645054907</v>
@@ -2147,13 +1976,13 @@
         <v>270104</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I45">
         <v>270104001</v>
       </c>
       <c r="J45" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2170,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46">
         <v>52.043669754383046</v>
@@ -2179,13 +2008,13 @@
         <v>270104</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I46">
         <v>270104001</v>
       </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2202,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47">
         <v>24.739938526558447</v>
@@ -2211,13 +2040,13 @@
         <v>270104</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I47">
         <v>270104001</v>
       </c>
       <c r="J47" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2234,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F48">
         <v>15.560631298852687</v>
@@ -2243,13 +2072,13 @@
         <v>270104</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I48">
         <v>270104001</v>
       </c>
       <c r="J48" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2266,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49">
         <v>26.009317459128354</v>
@@ -2275,18 +2104,18 @@
         <v>270104</v>
       </c>
       <c r="H49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I49">
         <v>270104001</v>
       </c>
       <c r="J49" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -2298,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F50">
         <v>36.802336327677345</v>
@@ -2307,18 +2136,18 @@
         <v>270104</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I50">
         <v>270104001</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -2330,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51">
         <v>29.152502090347561</v>
@@ -2339,18 +2168,18 @@
         <v>270104</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I51">
         <v>270104001</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -2362,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F52">
         <v>40.625401793081501</v>
@@ -2371,18 +2200,18 @@
         <v>270104</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I52">
         <v>270104001</v>
       </c>
       <c r="J52" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -2394,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53">
         <v>20.098332778825181</v>
@@ -2403,18 +2232,18 @@
         <v>270104</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I53">
         <v>270104001</v>
       </c>
       <c r="J53" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -2426,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54">
         <v>16.542906818619795</v>
@@ -2435,18 +2264,18 @@
         <v>270104</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I54">
         <v>270104001</v>
       </c>
       <c r="J54" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -2458,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F55">
         <v>24.53114964720255</v>
@@ -2467,18 +2296,18 @@
         <v>270104</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I55">
         <v>270104001</v>
       </c>
       <c r="J55" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -2490,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56">
         <v>35.927009948168539</v>
@@ -2499,18 +2328,18 @@
         <v>270104</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I56">
         <v>270104001</v>
       </c>
       <c r="J56" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -2522,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57">
         <v>17.255685233314058</v>
@@ -2531,18 +2360,18 @@
         <v>270104</v>
       </c>
       <c r="H57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I57">
         <v>270104001</v>
       </c>
       <c r="J57" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -2554,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58">
         <v>30.600693931077359</v>
@@ -2563,18 +2392,18 @@
         <v>270104</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I58">
         <v>270104001</v>
       </c>
       <c r="J58" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -2586,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F59">
         <v>25.479460700395247</v>
@@ -2595,18 +2424,18 @@
         <v>270104</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I59">
         <v>270104001</v>
       </c>
       <c r="J59" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -2618,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F60">
         <v>12.644526034115163</v>
@@ -2627,18 +2456,18 @@
         <v>270104</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I60">
         <v>270104001</v>
       </c>
       <c r="J60" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -2650,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61">
         <v>15.902443139810387</v>
@@ -2659,18 +2488,18 @@
         <v>270104</v>
       </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I61">
         <v>270104001</v>
       </c>
       <c r="J61" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -2682,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62">
         <v>13.637899574238022</v>
@@ -2691,18 +2520,18 @@
         <v>270104</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I62">
         <v>270104001</v>
       </c>
       <c r="J62" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63">
         <v>11</v>
@@ -2714,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F63">
         <v>25.003951613525039</v>
@@ -2723,18 +2552,18 @@
         <v>270104</v>
       </c>
       <c r="H63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I63">
         <v>270104001</v>
       </c>
       <c r="J63" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64">
         <v>11</v>
@@ -2746,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F64">
         <v>40.694932763342621</v>
@@ -2755,18 +2584,18 @@
         <v>270104</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I64">
         <v>270104001</v>
       </c>
       <c r="J64" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65">
         <v>11</v>
@@ -2778,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F65">
         <v>7.8326687842130163</v>
@@ -2787,18 +2616,18 @@
         <v>270104</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I65">
         <v>270104001</v>
       </c>
       <c r="J65" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66">
         <v>11</v>
@@ -2810,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66">
         <v>14.743593250133319</v>
@@ -2819,18 +2648,18 @@
         <v>270104</v>
       </c>
       <c r="H66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I66">
         <v>270104001</v>
       </c>
       <c r="J66" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67">
         <v>11</v>
@@ -2842,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67">
         <v>19.565832211701874</v>
@@ -2851,18 +2680,18 @@
         <v>270104</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I67">
         <v>270104001</v>
       </c>
       <c r="J67" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68">
         <v>12</v>
@@ -2874,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F68">
         <v>20.843754785360623</v>
@@ -2883,18 +2712,18 @@
         <v>270104</v>
       </c>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I68">
         <v>270104001</v>
       </c>
       <c r="J68" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B69">
         <v>12</v>
@@ -2906,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F69">
         <v>22.510493934862033</v>
@@ -2915,18 +2744,18 @@
         <v>270104</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I69">
         <v>270104001</v>
       </c>
       <c r="J69" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -2938,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F70">
         <v>35.442062806147973</v>
@@ -2947,18 +2776,18 @@
         <v>270104</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I70">
         <v>270104001</v>
       </c>
       <c r="J70" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71">
         <v>12</v>
@@ -2970,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F71">
         <v>11.239855035475474</v>
@@ -2979,18 +2808,18 @@
         <v>270104</v>
       </c>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I71">
         <v>270104001</v>
       </c>
       <c r="J71" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72">
         <v>12</v>
@@ -3002,7 +2831,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F72">
         <v>13.880182691612742</v>
@@ -3011,18 +2840,18 @@
         <v>270104</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I72">
         <v>270104001</v>
       </c>
       <c r="J72" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73">
         <v>12</v>
@@ -3034,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F73">
         <v>14.563893733426283</v>
@@ -3043,13 +2872,13 @@
         <v>270104</v>
       </c>
       <c r="H73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I73">
         <v>270104001</v>
       </c>
       <c r="J73" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3066,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F74">
         <v>32.179403633053603</v>
@@ -3075,13 +2904,13 @@
         <v>270104</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I74">
         <v>270104001</v>
       </c>
       <c r="J74" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3098,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75">
         <v>50.332682001537506</v>
@@ -3107,13 +2936,13 @@
         <v>270104</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I75">
         <v>270104001</v>
       </c>
       <c r="J75" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3130,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F76">
         <v>40.388820571406157</v>
@@ -3139,13 +2968,13 @@
         <v>270104</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I76">
         <v>270104001</v>
       </c>
       <c r="J76" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3162,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F77">
         <v>15.912477286642208</v>
@@ -3171,13 +3000,13 @@
         <v>270104</v>
       </c>
       <c r="H77" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I77">
         <v>270104001</v>
       </c>
       <c r="J77" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3194,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F78">
         <v>24.851321495500677</v>
@@ -3203,13 +3032,13 @@
         <v>270104</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I78">
         <v>270104001</v>
       </c>
       <c r="J78" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3226,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F79">
         <v>19.304121145856701</v>
@@ -3235,18 +3064,18 @@
         <v>270104</v>
       </c>
       <c r="H79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I79">
         <v>270104001</v>
       </c>
       <c r="J79" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80">
         <v>14</v>
@@ -3258,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F80">
         <v>29.532562536809149</v>
@@ -3267,18 +3096,18 @@
         <v>270104</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I80">
         <v>270104001</v>
       </c>
       <c r="J80" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <v>14</v>
@@ -3290,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F81">
         <v>23.947442266945696</v>
@@ -3299,18 +3128,18 @@
         <v>270104</v>
       </c>
       <c r="H81" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I81">
         <v>270104001</v>
       </c>
       <c r="J81" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82">
         <v>14</v>
@@ -3322,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F82">
         <v>43.611964951345158</v>
@@ -3331,18 +3160,18 @@
         <v>270104</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I82">
         <v>270104001</v>
       </c>
       <c r="J82" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>14</v>
@@ -3354,7 +3183,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F83">
         <v>22.750379715445895</v>
@@ -3363,18 +3192,18 @@
         <v>270104</v>
       </c>
       <c r="H83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I83">
         <v>270104001</v>
       </c>
       <c r="J83" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84">
         <v>14</v>
@@ -3386,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F84">
         <v>13.080058567128452</v>
@@ -3395,18 +3224,18 @@
         <v>270104</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I84">
         <v>270104001</v>
       </c>
       <c r="J84" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85">
         <v>14</v>
@@ -3418,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F85">
         <v>20.76187810015562</v>
@@ -3427,13 +3256,13 @@
         <v>270104</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I85">
         <v>270104001</v>
       </c>
       <c r="J85" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3450,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F86">
         <v>41.978785782521328</v>
@@ -3459,13 +3288,13 @@
         <v>270104</v>
       </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I86">
         <v>270104001</v>
       </c>
       <c r="J86" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3482,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F87">
         <v>26.076916811071555</v>
@@ -3491,13 +3320,13 @@
         <v>270104</v>
       </c>
       <c r="H87" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I87">
         <v>270104001</v>
       </c>
       <c r="J87" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3514,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F88">
         <v>49.891653765509616</v>
@@ -3523,13 +3352,13 @@
         <v>270104</v>
       </c>
       <c r="H88" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I88">
         <v>270104001</v>
       </c>
       <c r="J88" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3546,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F89">
         <v>19.796093158085451</v>
@@ -3555,13 +3384,13 @@
         <v>270104</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I89">
         <v>270104001</v>
       </c>
       <c r="J89" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3578,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F90">
         <v>16.512834018688068</v>
@@ -3587,13 +3416,13 @@
         <v>270104</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I90">
         <v>270104001</v>
       </c>
       <c r="J90" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3610,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F91">
         <v>28.970223561143467</v>
@@ -3619,18 +3448,18 @@
         <v>270104</v>
       </c>
       <c r="H91" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I91">
         <v>270104001</v>
       </c>
       <c r="J91" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B92">
         <v>16</v>
@@ -3642,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F92">
         <v>34.692627108050019</v>
@@ -3651,18 +3480,18 @@
         <v>270104</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I92">
         <v>270104001</v>
       </c>
       <c r="J92" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B93">
         <v>16</v>
@@ -3674,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F93">
         <v>22.664331569304668</v>
@@ -3683,61 +3512,13 @@
         <v>270104</v>
       </c>
       <c r="H93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I93">
         <v>270104001</v>
       </c>
       <c r="J93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Género/Violencia contra Mujer/27.3.xlsx
+++ b/Género/Violencia contra Mujer/27.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9500CF53-4998-4649-A513-5AC012635277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7FCD10-1933-46AB-8270-E2F0FF3161DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7055D139-B5E0-4249-8A75-EC5859DE3028}"/>
   </bookViews>
@@ -174,11 +174,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -189,10 +190,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6B68294A-C899-40A8-8FB7-B703D954D522}"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -223,7 +226,7 @@
     <tableColumn id="3" xr3:uid="{84CCDC05-1722-4DF6-9F8B-2B6A168B8CDE}" name="Año realización encuesta"/>
     <tableColumn id="10" xr3:uid="{EFC60CE6-330E-4883-BED9-DBC104699185}" name="ID_cuándo"/>
     <tableColumn id="4" xr3:uid="{790DB906-C407-4591-8047-017296483B60}" name="¿Cuándo fue víctima de VIF?"/>
-    <tableColumn id="5" xr3:uid="{A96FACCA-4477-4AF3-BE92-19D6333224A6}" name="Prevalencia (%)"/>
+    <tableColumn id="5" xr3:uid="{A96FACCA-4477-4AF3-BE92-19D6333224A6}" name="Prevalencia (%)" dataCellStyle="Porcentaje"/>
     <tableColumn id="6" xr3:uid="{BD52585F-A7B1-4B6D-9536-456051343A9A}" name="Id_producto"/>
     <tableColumn id="7" xr3:uid="{5CD405A2-D7AB-481B-88F3-4E5300A1BE63}" name="Producto"/>
     <tableColumn id="8" xr3:uid="{035EEA9C-3933-4CF0-A85E-8814B72A3015}" name="Id_categoría"/>
@@ -533,7 +536,7 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="F2" sqref="F2:F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,8 +596,8 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
-        <v>12.105270521735481</v>
+      <c r="F2" s="4">
+        <v>0.12105270521735501</v>
       </c>
       <c r="G2">
         <v>270104</v>
@@ -625,8 +628,8 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
-        <v>30.078128557386751</v>
+      <c r="F3" s="4">
+        <v>0.30078128557386802</v>
       </c>
       <c r="G3">
         <v>270104</v>
@@ -657,8 +660,8 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
-        <v>47.609951601000503</v>
+      <c r="F4" s="4">
+        <v>0.476099516010005</v>
       </c>
       <c r="G4">
         <v>270104</v>
@@ -689,8 +692,8 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>10.504666097687238</v>
+      <c r="F5" s="4">
+        <v>0.105046660976872</v>
       </c>
       <c r="G5">
         <v>270104</v>
@@ -721,8 +724,8 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>17.62049783215506</v>
+      <c r="F6" s="4">
+        <v>0.17620497832155099</v>
       </c>
       <c r="G6">
         <v>270104</v>
@@ -753,8 +756,8 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7">
-        <v>26.441878084195992</v>
+      <c r="F7" s="4">
+        <v>0.26441878084196002</v>
       </c>
       <c r="G7">
         <v>270104</v>
@@ -785,8 +788,8 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8">
-        <v>22.401956577705313</v>
+      <c r="F8" s="4">
+        <v>0.22401956577705301</v>
       </c>
       <c r="G8">
         <v>270104</v>
@@ -817,8 +820,8 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9">
-        <v>45.652528702007949</v>
+      <c r="F9" s="4">
+        <v>0.456525287020079</v>
       </c>
       <c r="G9">
         <v>270104</v>
@@ -849,8 +852,8 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10">
-        <v>34.427672165919617</v>
+      <c r="F10" s="4">
+        <v>0.34427672165919598</v>
       </c>
       <c r="G10">
         <v>270104</v>
@@ -881,8 +884,8 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11">
-        <v>17.577018793443749</v>
+      <c r="F11" s="4">
+        <v>0.17577018793443699</v>
       </c>
       <c r="G11">
         <v>270104</v>
@@ -913,8 +916,8 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12">
-        <v>19.700190860678688</v>
+      <c r="F12" s="4">
+        <v>0.19700190860678701</v>
       </c>
       <c r="G12">
         <v>270104</v>
@@ -945,8 +948,8 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13">
-        <v>24.717096562942697</v>
+      <c r="F13" s="4">
+        <v>0.247170965629427</v>
       </c>
       <c r="G13">
         <v>270104</v>
@@ -977,8 +980,8 @@
       <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F14">
-        <v>33.995341642515513</v>
+      <c r="F14" s="4">
+        <v>0.33995341642515498</v>
       </c>
       <c r="G14">
         <v>270104</v>
@@ -1009,8 +1012,8 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15">
-        <v>19.209229145000698</v>
+      <c r="F15" s="4">
+        <v>0.192092291450007</v>
       </c>
       <c r="G15">
         <v>270104</v>
@@ -1041,8 +1044,8 @@
       <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F16">
-        <v>38.870144250006966</v>
+      <c r="F16" s="4">
+        <v>0.38870144250006999</v>
       </c>
       <c r="G16">
         <v>270104</v>
@@ -1073,8 +1076,8 @@
       <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="F17">
-        <v>17.339046636914816</v>
+      <c r="F17" s="4">
+        <v>0.17339046636914801</v>
       </c>
       <c r="G17">
         <v>270104</v>
@@ -1105,8 +1108,8 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="F18">
-        <v>12.252849429128224</v>
+      <c r="F18" s="4">
+        <v>0.122528494291282</v>
       </c>
       <c r="G18">
         <v>270104</v>
@@ -1137,8 +1140,8 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19">
-        <v>21.908910404769447</v>
+      <c r="F19" s="4">
+        <v>0.21908910404769399</v>
       </c>
       <c r="G19">
         <v>270104</v>
@@ -1169,8 +1172,8 @@
       <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F20">
-        <v>31.167817796937531</v>
+      <c r="F20" s="4">
+        <v>0.31167817796937503</v>
       </c>
       <c r="G20">
         <v>270104</v>
@@ -1201,8 +1204,8 @@
       <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="F21">
-        <v>29.780703659284452</v>
+      <c r="F21" s="4">
+        <v>0.29780703659284402</v>
       </c>
       <c r="G21">
         <v>270104</v>
@@ -1233,8 +1236,8 @@
       <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="F22">
-        <v>46.53479574857063</v>
+      <c r="F22" s="4">
+        <v>0.46534795748570601</v>
       </c>
       <c r="G22">
         <v>270104</v>
@@ -1265,8 +1268,8 @@
       <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="F23">
-        <v>14.180534309862637</v>
+      <c r="F23" s="4">
+        <v>0.141805343098626</v>
       </c>
       <c r="G23">
         <v>270104</v>
@@ -1297,8 +1300,8 @@
       <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="F24">
-        <v>22.66793932816141</v>
+      <c r="F24" s="4">
+        <v>0.22667939328161399</v>
       </c>
       <c r="G24">
         <v>270104</v>
@@ -1329,8 +1332,8 @@
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25">
-        <v>29.481550870855816</v>
+      <c r="F25" s="4">
+        <v>0.29481550870855799</v>
       </c>
       <c r="G25">
         <v>270104</v>
@@ -1361,8 +1364,8 @@
       <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="F26">
-        <v>31.513645101919096</v>
+      <c r="F26" s="4">
+        <v>0.31513645101919102</v>
       </c>
       <c r="G26">
         <v>270104</v>
@@ -1393,8 +1396,8 @@
       <c r="E27" t="s">
         <v>18</v>
       </c>
-      <c r="F27">
-        <v>28.08164625289395</v>
+      <c r="F27" s="4">
+        <v>0.28081646252893999</v>
       </c>
       <c r="G27">
         <v>270104</v>
@@ -1425,8 +1428,8 @@
       <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="F28">
-        <v>38.390404827198417</v>
+      <c r="F28" s="4">
+        <v>0.38390404827198399</v>
       </c>
       <c r="G28">
         <v>270104</v>
@@ -1457,8 +1460,8 @@
       <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F29">
-        <v>24.928517123892561</v>
+      <c r="F29" s="4">
+        <v>0.24928517123892599</v>
       </c>
       <c r="G29">
         <v>270104</v>
@@ -1489,8 +1492,8 @@
       <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="F30">
-        <v>21.794223045402674</v>
+      <c r="F30" s="4">
+        <v>0.217942230454027</v>
       </c>
       <c r="G30">
         <v>270104</v>
@@ -1521,8 +1524,8 @@
       <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31">
-        <v>23.397448255532971</v>
+      <c r="F31" s="4">
+        <v>0.23397448255532999</v>
       </c>
       <c r="G31">
         <v>270104</v>
@@ -1553,8 +1556,8 @@
       <c r="E32" t="s">
         <v>18</v>
       </c>
-      <c r="F32">
-        <v>35.360900867638918</v>
+      <c r="F32" s="4">
+        <v>0.353609008676389</v>
       </c>
       <c r="G32">
         <v>270104</v>
@@ -1585,8 +1588,8 @@
       <c r="E33" t="s">
         <v>18</v>
       </c>
-      <c r="F33">
-        <v>40.570420114741339</v>
+      <c r="F33" s="4">
+        <v>0.40570420114741301</v>
       </c>
       <c r="G33">
         <v>270104</v>
@@ -1617,8 +1620,8 @@
       <c r="E34" t="s">
         <v>18</v>
       </c>
-      <c r="F34">
-        <v>41.143609224806646</v>
+      <c r="F34" s="4">
+        <v>0.41143609224806599</v>
       </c>
       <c r="G34">
         <v>270104</v>
@@ -1649,8 +1652,8 @@
       <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="F35">
-        <v>11.677127561380839</v>
+      <c r="F35" s="4">
+        <v>0.116771275613808</v>
       </c>
       <c r="G35">
         <v>270104</v>
@@ -1681,8 +1684,8 @@
       <c r="E36" t="s">
         <v>17</v>
       </c>
-      <c r="F36">
-        <v>23.541059614314346</v>
+      <c r="F36" s="4">
+        <v>0.235410596143143</v>
       </c>
       <c r="G36">
         <v>270104</v>
@@ -1713,8 +1716,8 @@
       <c r="E37" t="s">
         <v>17</v>
       </c>
-      <c r="F37">
-        <v>19.74580979140147</v>
+      <c r="F37" s="4">
+        <v>0.197458097914015</v>
       </c>
       <c r="G37">
         <v>270104</v>
@@ -1745,8 +1748,8 @@
       <c r="E38" t="s">
         <v>18</v>
       </c>
-      <c r="F38">
-        <v>24.291399108664162</v>
+      <c r="F38" s="4">
+        <v>0.24291399108664199</v>
       </c>
       <c r="G38">
         <v>270104</v>
@@ -1777,8 +1780,8 @@
       <c r="E39" t="s">
         <v>18</v>
       </c>
-      <c r="F39">
-        <v>17.781721543574914</v>
+      <c r="F39" s="4">
+        <v>0.17781721543574899</v>
       </c>
       <c r="G39">
         <v>270104</v>
@@ -1809,8 +1812,8 @@
       <c r="E40" t="s">
         <v>18</v>
       </c>
-      <c r="F40">
-        <v>47.980869252333584</v>
+      <c r="F40" s="4">
+        <v>0.47980869252333602</v>
       </c>
       <c r="G40">
         <v>270104</v>
@@ -1841,8 +1844,8 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="F41">
-        <v>17.856131957664324</v>
+      <c r="F41" s="4">
+        <v>0.17856131957664301</v>
       </c>
       <c r="G41">
         <v>270104</v>
@@ -1873,8 +1876,8 @@
       <c r="E42" t="s">
         <v>17</v>
       </c>
-      <c r="F42">
-        <v>14.317743429517742</v>
+      <c r="F42" s="4">
+        <v>0.14317743429517699</v>
       </c>
       <c r="G42">
         <v>270104</v>
@@ -1905,8 +1908,8 @@
       <c r="E43" t="s">
         <v>17</v>
       </c>
-      <c r="F43">
-        <v>25.522277383377141</v>
+      <c r="F43" s="4">
+        <v>0.25522277383377101</v>
       </c>
       <c r="G43">
         <v>270104</v>
@@ -1937,8 +1940,8 @@
       <c r="E44" t="s">
         <v>18</v>
       </c>
-      <c r="F44">
-        <v>43.892757660167128</v>
+      <c r="F44" s="4">
+        <v>0.43892757660167098</v>
       </c>
       <c r="G44">
         <v>270104</v>
@@ -1969,8 +1972,8 @@
       <c r="E45" t="s">
         <v>18</v>
       </c>
-      <c r="F45">
-        <v>26.435461645054907</v>
+      <c r="F45" s="4">
+        <v>0.26435461645054897</v>
       </c>
       <c r="G45">
         <v>270104</v>
@@ -2001,8 +2004,8 @@
       <c r="E46" t="s">
         <v>18</v>
       </c>
-      <c r="F46">
-        <v>52.043669754383046</v>
+      <c r="F46" s="4">
+        <v>0.52043669754383004</v>
       </c>
       <c r="G46">
         <v>270104</v>
@@ -2033,8 +2036,8 @@
       <c r="E47" t="s">
         <v>17</v>
       </c>
-      <c r="F47">
-        <v>24.739938526558447</v>
+      <c r="F47" s="4">
+        <v>0.247399385265584</v>
       </c>
       <c r="G47">
         <v>270104</v>
@@ -2065,8 +2068,8 @@
       <c r="E48" t="s">
         <v>17</v>
       </c>
-      <c r="F48">
-        <v>15.560631298852687</v>
+      <c r="F48" s="4">
+        <v>0.15560631298852701</v>
       </c>
       <c r="G48">
         <v>270104</v>
@@ -2097,8 +2100,8 @@
       <c r="E49" t="s">
         <v>17</v>
       </c>
-      <c r="F49">
-        <v>26.009317459128354</v>
+      <c r="F49" s="4">
+        <v>0.260093174591284</v>
       </c>
       <c r="G49">
         <v>270104</v>
@@ -2129,8 +2132,8 @@
       <c r="E50" t="s">
         <v>18</v>
       </c>
-      <c r="F50">
-        <v>36.802336327677345</v>
+      <c r="F50" s="4">
+        <v>0.36802336327677299</v>
       </c>
       <c r="G50">
         <v>270104</v>
@@ -2161,8 +2164,8 @@
       <c r="E51" t="s">
         <v>18</v>
       </c>
-      <c r="F51">
-        <v>29.152502090347561</v>
+      <c r="F51" s="4">
+        <v>0.29152502090347598</v>
       </c>
       <c r="G51">
         <v>270104</v>
@@ -2193,8 +2196,8 @@
       <c r="E52" t="s">
         <v>18</v>
       </c>
-      <c r="F52">
-        <v>40.625401793081501</v>
+      <c r="F52" s="4">
+        <v>0.406254017930815</v>
       </c>
       <c r="G52">
         <v>270104</v>
@@ -2225,8 +2228,8 @@
       <c r="E53" t="s">
         <v>17</v>
       </c>
-      <c r="F53">
-        <v>20.098332778825181</v>
+      <c r="F53" s="4">
+        <v>0.20098332778825201</v>
       </c>
       <c r="G53">
         <v>270104</v>
@@ -2257,8 +2260,8 @@
       <c r="E54" t="s">
         <v>17</v>
       </c>
-      <c r="F54">
-        <v>16.542906818619795</v>
+      <c r="F54" s="4">
+        <v>0.16542906818619799</v>
       </c>
       <c r="G54">
         <v>270104</v>
@@ -2289,8 +2292,8 @@
       <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="F55">
-        <v>24.53114964720255</v>
+      <c r="F55" s="4">
+        <v>0.24531149647202599</v>
       </c>
       <c r="G55">
         <v>270104</v>
@@ -2321,8 +2324,8 @@
       <c r="E56" t="s">
         <v>18</v>
       </c>
-      <c r="F56">
-        <v>35.927009948168539</v>
+      <c r="F56" s="4">
+        <v>0.35927009948168498</v>
       </c>
       <c r="G56">
         <v>270104</v>
@@ -2353,8 +2356,8 @@
       <c r="E57" t="s">
         <v>18</v>
       </c>
-      <c r="F57">
-        <v>17.255685233314058</v>
+      <c r="F57" s="4">
+        <v>0.172556852333141</v>
       </c>
       <c r="G57">
         <v>270104</v>
@@ -2385,8 +2388,8 @@
       <c r="E58" t="s">
         <v>18</v>
       </c>
-      <c r="F58">
-        <v>30.600693931077359</v>
+      <c r="F58" s="4">
+        <v>0.306006939310774</v>
       </c>
       <c r="G58">
         <v>270104</v>
@@ -2417,8 +2420,8 @@
       <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="F59">
-        <v>25.479460700395247</v>
+      <c r="F59" s="4">
+        <v>0.25479460700395201</v>
       </c>
       <c r="G59">
         <v>270104</v>
@@ -2449,8 +2452,8 @@
       <c r="E60" t="s">
         <v>17</v>
       </c>
-      <c r="F60">
-        <v>12.644526034115163</v>
+      <c r="F60" s="4">
+        <v>0.126445260341152</v>
       </c>
       <c r="G60">
         <v>270104</v>
@@ -2481,8 +2484,8 @@
       <c r="E61" t="s">
         <v>17</v>
       </c>
-      <c r="F61">
-        <v>15.902443139810387</v>
+      <c r="F61" s="4">
+        <v>0.15902443139810399</v>
       </c>
       <c r="G61">
         <v>270104</v>
@@ -2513,8 +2516,8 @@
       <c r="E62" t="s">
         <v>18</v>
       </c>
-      <c r="F62">
-        <v>13.637899574238022</v>
+      <c r="F62" s="4">
+        <v>0.13637899574237999</v>
       </c>
       <c r="G62">
         <v>270104</v>
@@ -2545,8 +2548,8 @@
       <c r="E63" t="s">
         <v>18</v>
       </c>
-      <c r="F63">
-        <v>25.003951613525039</v>
+      <c r="F63" s="4">
+        <v>0.25003951613525</v>
       </c>
       <c r="G63">
         <v>270104</v>
@@ -2577,8 +2580,8 @@
       <c r="E64" t="s">
         <v>18</v>
       </c>
-      <c r="F64">
-        <v>40.694932763342621</v>
+      <c r="F64" s="4">
+        <v>0.40694932763342601</v>
       </c>
       <c r="G64">
         <v>270104</v>
@@ -2609,8 +2612,8 @@
       <c r="E65" t="s">
         <v>17</v>
       </c>
-      <c r="F65">
-        <v>7.8326687842130163</v>
+      <c r="F65" s="4">
+        <v>7.8326687842130205E-2</v>
       </c>
       <c r="G65">
         <v>270104</v>
@@ -2641,8 +2644,8 @@
       <c r="E66" t="s">
         <v>17</v>
       </c>
-      <c r="F66">
-        <v>14.743593250133319</v>
+      <c r="F66" s="4">
+        <v>0.14743593250133299</v>
       </c>
       <c r="G66">
         <v>270104</v>
@@ -2673,8 +2676,8 @@
       <c r="E67" t="s">
         <v>17</v>
       </c>
-      <c r="F67">
-        <v>19.565832211701874</v>
+      <c r="F67" s="4">
+        <v>0.195658322117019</v>
       </c>
       <c r="G67">
         <v>270104</v>
@@ -2705,8 +2708,8 @@
       <c r="E68" t="s">
         <v>18</v>
       </c>
-      <c r="F68">
-        <v>20.843754785360623</v>
+      <c r="F68" s="4">
+        <v>0.20843754785360599</v>
       </c>
       <c r="G68">
         <v>270104</v>
@@ -2737,8 +2740,8 @@
       <c r="E69" t="s">
         <v>18</v>
       </c>
-      <c r="F69">
-        <v>22.510493934862033</v>
+      <c r="F69" s="4">
+        <v>0.22510493934862</v>
       </c>
       <c r="G69">
         <v>270104</v>
@@ -2769,8 +2772,8 @@
       <c r="E70" t="s">
         <v>18</v>
       </c>
-      <c r="F70">
-        <v>35.442062806147973</v>
+      <c r="F70" s="4">
+        <v>0.35442062806148</v>
       </c>
       <c r="G70">
         <v>270104</v>
@@ -2801,8 +2804,8 @@
       <c r="E71" t="s">
         <v>17</v>
       </c>
-      <c r="F71">
-        <v>11.239855035475474</v>
+      <c r="F71" s="4">
+        <v>0.112398550354755</v>
       </c>
       <c r="G71">
         <v>270104</v>
@@ -2833,8 +2836,8 @@
       <c r="E72" t="s">
         <v>17</v>
       </c>
-      <c r="F72">
-        <v>13.880182691612742</v>
+      <c r="F72" s="4">
+        <v>0.138801826916127</v>
       </c>
       <c r="G72">
         <v>270104</v>
@@ -2865,8 +2868,8 @@
       <c r="E73" t="s">
         <v>17</v>
       </c>
-      <c r="F73">
-        <v>14.563893733426283</v>
+      <c r="F73" s="4">
+        <v>0.145638937334263</v>
       </c>
       <c r="G73">
         <v>270104</v>
@@ -2897,8 +2900,8 @@
       <c r="E74" t="s">
         <v>18</v>
       </c>
-      <c r="F74">
-        <v>32.179403633053603</v>
+      <c r="F74" s="4">
+        <v>0.32179403633053599</v>
       </c>
       <c r="G74">
         <v>270104</v>
@@ -2929,8 +2932,8 @@
       <c r="E75" t="s">
         <v>18</v>
       </c>
-      <c r="F75">
-        <v>50.332682001537506</v>
+      <c r="F75" s="4">
+        <v>0.50332682001537499</v>
       </c>
       <c r="G75">
         <v>270104</v>
@@ -2961,8 +2964,8 @@
       <c r="E76" t="s">
         <v>18</v>
       </c>
-      <c r="F76">
-        <v>40.388820571406157</v>
+      <c r="F76" s="4">
+        <v>0.40388820571406198</v>
       </c>
       <c r="G76">
         <v>270104</v>
@@ -2993,8 +2996,8 @@
       <c r="E77" t="s">
         <v>17</v>
       </c>
-      <c r="F77">
-        <v>15.912477286642208</v>
+      <c r="F77" s="4">
+        <v>0.15912477286642199</v>
       </c>
       <c r="G77">
         <v>270104</v>
@@ -3025,8 +3028,8 @@
       <c r="E78" t="s">
         <v>17</v>
       </c>
-      <c r="F78">
-        <v>24.851321495500677</v>
+      <c r="F78" s="4">
+        <v>0.248513214955007</v>
       </c>
       <c r="G78">
         <v>270104</v>
@@ -3057,8 +3060,8 @@
       <c r="E79" t="s">
         <v>17</v>
       </c>
-      <c r="F79">
-        <v>19.304121145856701</v>
+      <c r="F79" s="4">
+        <v>0.19304121145856701</v>
       </c>
       <c r="G79">
         <v>270104</v>
@@ -3089,8 +3092,8 @@
       <c r="E80" t="s">
         <v>18</v>
       </c>
-      <c r="F80">
-        <v>29.532562536809149</v>
+      <c r="F80" s="4">
+        <v>0.29532562536809198</v>
       </c>
       <c r="G80">
         <v>270104</v>
@@ -3121,8 +3124,8 @@
       <c r="E81" t="s">
         <v>18</v>
       </c>
-      <c r="F81">
-        <v>23.947442266945696</v>
+      <c r="F81" s="4">
+        <v>0.23947442266945701</v>
       </c>
       <c r="G81">
         <v>270104</v>
@@ -3153,8 +3156,8 @@
       <c r="E82" t="s">
         <v>18</v>
       </c>
-      <c r="F82">
-        <v>43.611964951345158</v>
+      <c r="F82" s="4">
+        <v>0.436119649513452</v>
       </c>
       <c r="G82">
         <v>270104</v>
@@ -3185,8 +3188,8 @@
       <c r="E83" t="s">
         <v>17</v>
       </c>
-      <c r="F83">
-        <v>22.750379715445895</v>
+      <c r="F83" s="4">
+        <v>0.22750379715445901</v>
       </c>
       <c r="G83">
         <v>270104</v>
@@ -3217,8 +3220,8 @@
       <c r="E84" t="s">
         <v>17</v>
       </c>
-      <c r="F84">
-        <v>13.080058567128452</v>
+      <c r="F84" s="4">
+        <v>0.130800585671285</v>
       </c>
       <c r="G84">
         <v>270104</v>
@@ -3249,8 +3252,8 @@
       <c r="E85" t="s">
         <v>17</v>
       </c>
-      <c r="F85">
-        <v>20.76187810015562</v>
+      <c r="F85" s="4">
+        <v>0.20761878100155601</v>
       </c>
       <c r="G85">
         <v>270104</v>
@@ -3281,8 +3284,8 @@
       <c r="E86" t="s">
         <v>18</v>
       </c>
-      <c r="F86">
-        <v>41.978785782521328</v>
+      <c r="F86" s="4">
+        <v>0.419787857825213</v>
       </c>
       <c r="G86">
         <v>270104</v>
@@ -3313,8 +3316,8 @@
       <c r="E87" t="s">
         <v>18</v>
       </c>
-      <c r="F87">
-        <v>26.076916811071555</v>
+      <c r="F87" s="4">
+        <v>0.26076916811071599</v>
       </c>
       <c r="G87">
         <v>270104</v>
@@ -3345,8 +3348,8 @@
       <c r="E88" t="s">
         <v>18</v>
       </c>
-      <c r="F88">
-        <v>49.891653765509616</v>
+      <c r="F88" s="4">
+        <v>0.49891653765509603</v>
       </c>
       <c r="G88">
         <v>270104</v>
@@ -3377,8 +3380,8 @@
       <c r="E89" t="s">
         <v>17</v>
       </c>
-      <c r="F89">
-        <v>19.796093158085451</v>
+      <c r="F89" s="4">
+        <v>0.19796093158085501</v>
       </c>
       <c r="G89">
         <v>270104</v>
@@ -3409,8 +3412,8 @@
       <c r="E90" t="s">
         <v>17</v>
       </c>
-      <c r="F90">
-        <v>16.512834018688068</v>
+      <c r="F90" s="4">
+        <v>0.165128340186881</v>
       </c>
       <c r="G90">
         <v>270104</v>
@@ -3441,8 +3444,8 @@
       <c r="E91" t="s">
         <v>17</v>
       </c>
-      <c r="F91">
-        <v>28.970223561143467</v>
+      <c r="F91" s="4">
+        <v>0.28970223561143499</v>
       </c>
       <c r="G91">
         <v>270104</v>
@@ -3473,8 +3476,8 @@
       <c r="E92" t="s">
         <v>18</v>
       </c>
-      <c r="F92">
-        <v>34.692627108050019</v>
+      <c r="F92" s="4">
+        <v>0.3469262710805</v>
       </c>
       <c r="G92">
         <v>270104</v>
@@ -3505,8 +3508,8 @@
       <c r="E93" t="s">
         <v>17</v>
       </c>
-      <c r="F93">
-        <v>22.664331569304668</v>
+      <c r="F93" s="4">
+        <v>0.22664331569304699</v>
       </c>
       <c r="G93">
         <v>270104</v>

--- a/Género/Violencia contra Mujer/27.3.xlsx
+++ b/Género/Violencia contra Mujer/27.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7FCD10-1933-46AB-8270-E2F0FF3161DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6586088-7E98-48E7-B5C9-3EECDBC35492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7055D139-B5E0-4249-8A75-EC5859DE3028}"/>
   </bookViews>
@@ -132,6 +132,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,14 +193,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6B68294A-C899-40A8-8FB7-B703D954D522}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -215,7 +221,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A059807-E114-4674-BDC8-2AB01452FACD}" name="Prevalencia_VIF_año_vida" displayName="Prevalencia_VIF_año_vida" ref="A1:J93" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A059807-E114-4674-BDC8-2AB01452FACD}" name="Prevalencia_VIF_año_vida" displayName="Prevalencia_VIF_año_vida" ref="A1:J93" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:J93" xr:uid="{6A059807-E114-4674-BDC8-2AB01452FACD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J93">
     <sortCondition ref="B1:B93"/>
@@ -226,7 +232,7 @@
     <tableColumn id="3" xr3:uid="{84CCDC05-1722-4DF6-9F8B-2B6A168B8CDE}" name="Año realización encuesta"/>
     <tableColumn id="10" xr3:uid="{EFC60CE6-330E-4883-BED9-DBC104699185}" name="ID_cuándo"/>
     <tableColumn id="4" xr3:uid="{790DB906-C407-4591-8047-017296483B60}" name="¿Cuándo fue víctima de VIF?"/>
-    <tableColumn id="5" xr3:uid="{A96FACCA-4477-4AF3-BE92-19D6333224A6}" name="Prevalencia (%)" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{A96FACCA-4477-4AF3-BE92-19D6333224A6}" name="Prevalencia (%)" dataDxfId="0" dataCellStyle="Porcentaje"/>
     <tableColumn id="6" xr3:uid="{BD52585F-A7B1-4B6D-9536-456051343A9A}" name="Id_producto"/>
     <tableColumn id="7" xr3:uid="{5CD405A2-D7AB-481B-88F3-4E5300A1BE63}" name="Producto"/>
     <tableColumn id="8" xr3:uid="{035EEA9C-3933-4CF0-A85E-8814B72A3015}" name="Id_categoría"/>

--- a/Género/Violencia contra Mujer/27.3.xlsx
+++ b/Género/Violencia contra Mujer/27.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6586088-7E98-48E7-B5C9-3EECDBC35492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203361E6-0A77-4C82-B2BD-7BFBF0E541F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7055D139-B5E0-4249-8A75-EC5859DE3028}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="31">
   <si>
     <t>Región</t>
   </si>
@@ -127,14 +127,14 @@
   <si>
     <t>Araucanía</t>
   </si>
+  <si>
+    <t>Prevalencia (%)2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +182,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -193,16 +193,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6B68294A-C899-40A8-8FB7-B703D954D522}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -221,12 +244,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A059807-E114-4674-BDC8-2AB01452FACD}" name="Prevalencia_VIF_año_vida" displayName="Prevalencia_VIF_año_vida" ref="A1:J93" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:J93" xr:uid="{6A059807-E114-4674-BDC8-2AB01452FACD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A059807-E114-4674-BDC8-2AB01452FACD}" name="Prevalencia_VIF_año_vida" displayName="Prevalencia_VIF_año_vida" ref="A1:K93" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:K93" xr:uid="{6A059807-E114-4674-BDC8-2AB01452FACD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J93">
     <sortCondition ref="B1:B93"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{21B14A0B-0943-4FD2-BAF7-A333A3A687F8}" name="Región"/>
     <tableColumn id="2" xr3:uid="{84818B9D-026E-4D79-AFC6-6407FDAC5434}" name="Cod_Región"/>
     <tableColumn id="3" xr3:uid="{84CCDC05-1722-4DF6-9F8B-2B6A168B8CDE}" name="Año realización encuesta"/>
@@ -237,6 +260,7 @@
     <tableColumn id="7" xr3:uid="{5CD405A2-D7AB-481B-88F3-4E5300A1BE63}" name="Producto"/>
     <tableColumn id="8" xr3:uid="{035EEA9C-3933-4CF0-A85E-8814B72A3015}" name="Id_categoría"/>
     <tableColumn id="9" xr3:uid="{38071F7A-E8BB-45D3-8565-412C36CA3403}" name="Categoría"/>
+    <tableColumn id="11" xr3:uid="{68595849-DBEA-42E8-9BE3-8A32ACFB6949}" name="Prevalencia (%)2" dataDxfId="1" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -539,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079CE407-D701-4B8E-9C54-B43BA6D467F3}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F93"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,10 +575,10 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +594,7 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -585,8 +609,11 @@
       <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -602,23 +629,26 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
+        <v>12.1052705217355</v>
+      </c>
+      <c r="G2">
+        <v>270104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>270104001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4">
         <v>0.12105270521735501</v>
       </c>
-      <c r="G2">
-        <v>270104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>270104001</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -634,23 +664,26 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
+        <v>30.078128557386801</v>
+      </c>
+      <c r="G3">
+        <v>270104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>270104001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4">
         <v>0.30078128557386802</v>
       </c>
-      <c r="G3">
-        <v>270104</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>270104001</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -666,23 +699,26 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
+        <v>47.609951601000503</v>
+      </c>
+      <c r="G4">
+        <v>270104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>270104001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="4">
         <v>0.476099516010005</v>
       </c>
-      <c r="G4">
-        <v>270104</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>270104001</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -698,23 +734,26 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
+        <v>10.504666097687201</v>
+      </c>
+      <c r="G5">
+        <v>270104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>270104001</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="4">
         <v>0.105046660976872</v>
       </c>
-      <c r="G5">
-        <v>270104</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5">
-        <v>270104001</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -730,23 +769,26 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
+        <v>17.620497832155099</v>
+      </c>
+      <c r="G6">
+        <v>270104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>270104001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="4">
         <v>0.17620497832155099</v>
       </c>
-      <c r="G6">
-        <v>270104</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6">
-        <v>270104001</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -762,23 +804,26 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
+        <v>26.441878084195999</v>
+      </c>
+      <c r="G7">
+        <v>270104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>270104001</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="4">
         <v>0.26441878084196002</v>
       </c>
-      <c r="G7">
-        <v>270104</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7">
-        <v>270104001</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -794,23 +839,26 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
+        <v>22.401956577705299</v>
+      </c>
+      <c r="G8">
+        <v>270104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>270104001</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4">
         <v>0.22401956577705301</v>
       </c>
-      <c r="G8">
-        <v>270104</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8">
-        <v>270104001</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -826,23 +874,26 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
+        <v>45.652528702007899</v>
+      </c>
+      <c r="G9">
+        <v>270104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>270104001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="4">
         <v>0.456525287020079</v>
       </c>
-      <c r="G9">
-        <v>270104</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9">
-        <v>270104001</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -858,23 +909,26 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
+        <v>34.427672165919603</v>
+      </c>
+      <c r="G10">
+        <v>270104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>270104001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="4">
         <v>0.34427672165919598</v>
       </c>
-      <c r="G10">
-        <v>270104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10">
-        <v>270104001</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -890,23 +944,26 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
+        <v>17.577018793443699</v>
+      </c>
+      <c r="G11">
+        <v>270104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11">
+        <v>270104001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="4">
         <v>0.17577018793443699</v>
       </c>
-      <c r="G11">
-        <v>270104</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11">
-        <v>270104001</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -922,23 +979,26 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
+        <v>19.700190860678699</v>
+      </c>
+      <c r="G12">
+        <v>270104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>270104001</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="4">
         <v>0.19700190860678701</v>
       </c>
-      <c r="G12">
-        <v>270104</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12">
-        <v>270104001</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -954,23 +1014,26 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
+        <v>24.7170965629427</v>
+      </c>
+      <c r="G13">
+        <v>270104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>270104001</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="4">
         <v>0.247170965629427</v>
       </c>
-      <c r="G13">
-        <v>270104</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13">
-        <v>270104001</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -986,23 +1049,26 @@
       <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
+        <v>33.995341642515498</v>
+      </c>
+      <c r="G14">
+        <v>270104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>270104001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="4">
         <v>0.33995341642515498</v>
       </c>
-      <c r="G14">
-        <v>270104</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14">
-        <v>270104001</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1018,23 +1084,26 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="6">
+        <v>19.209229145000698</v>
+      </c>
+      <c r="G15">
+        <v>270104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>270104001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="4">
         <v>0.192092291450007</v>
       </c>
-      <c r="G15">
-        <v>270104</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15">
-        <v>270104001</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1050,23 +1119,26 @@
       <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="6">
+        <v>38.870144250007002</v>
+      </c>
+      <c r="G16">
+        <v>270104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <v>270104001</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="4">
         <v>0.38870144250006999</v>
       </c>
-      <c r="G16">
-        <v>270104</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16">
-        <v>270104001</v>
-      </c>
-      <c r="J16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1082,23 +1154,26 @@
       <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="6">
+        <v>17.339046636914802</v>
+      </c>
+      <c r="G17">
+        <v>270104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>270104001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="4">
         <v>0.17339046636914801</v>
       </c>
-      <c r="G17">
-        <v>270104</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17">
-        <v>270104001</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1114,23 +1189,26 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="6">
+        <v>12.252849429128201</v>
+      </c>
+      <c r="G18">
+        <v>270104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <v>270104001</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="4">
         <v>0.122528494291282</v>
       </c>
-      <c r="G18">
-        <v>270104</v>
-      </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18">
-        <v>270104001</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1146,23 +1224,26 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="6">
+        <v>21.908910404769401</v>
+      </c>
+      <c r="G19">
+        <v>270104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>270104001</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="4">
         <v>0.21908910404769399</v>
       </c>
-      <c r="G19">
-        <v>270104</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19">
-        <v>270104001</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1178,23 +1259,26 @@
       <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="6">
+        <v>31.167817796937499</v>
+      </c>
+      <c r="G20">
+        <v>270104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>270104001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="4">
         <v>0.31167817796937503</v>
       </c>
-      <c r="G20">
-        <v>270104</v>
-      </c>
-      <c r="H20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20">
-        <v>270104001</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1210,23 +1294,26 @@
       <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="6">
+        <v>29.780703659284399</v>
+      </c>
+      <c r="G21">
+        <v>270104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21">
+        <v>270104001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="4">
         <v>0.29780703659284402</v>
       </c>
-      <c r="G21">
-        <v>270104</v>
-      </c>
-      <c r="H21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21">
-        <v>270104001</v>
-      </c>
-      <c r="J21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1242,23 +1329,26 @@
       <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="6">
+        <v>46.534795748570602</v>
+      </c>
+      <c r="G22">
+        <v>270104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22">
+        <v>270104001</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="4">
         <v>0.46534795748570601</v>
       </c>
-      <c r="G22">
-        <v>270104</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22">
-        <v>270104001</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1274,23 +1364,26 @@
       <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="6">
+        <v>14.180534309862599</v>
+      </c>
+      <c r="G23">
+        <v>270104</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>270104001</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="4">
         <v>0.141805343098626</v>
       </c>
-      <c r="G23">
-        <v>270104</v>
-      </c>
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23">
-        <v>270104001</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1306,23 +1399,26 @@
       <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="6">
+        <v>22.667939328161399</v>
+      </c>
+      <c r="G24">
+        <v>270104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>270104001</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="4">
         <v>0.22667939328161399</v>
       </c>
-      <c r="G24">
-        <v>270104</v>
-      </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24">
-        <v>270104001</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1338,23 +1434,26 @@
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="6">
+        <v>29.481550870855799</v>
+      </c>
+      <c r="G25">
+        <v>270104</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>270104001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="4">
         <v>0.29481550870855799</v>
       </c>
-      <c r="G25">
-        <v>270104</v>
-      </c>
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25">
-        <v>270104001</v>
-      </c>
-      <c r="J25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1370,23 +1469,26 @@
       <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="6">
+        <v>31.513645101919099</v>
+      </c>
+      <c r="G26">
+        <v>270104</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <v>270104001</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="4">
         <v>0.31513645101919102</v>
       </c>
-      <c r="G26">
-        <v>270104</v>
-      </c>
-      <c r="H26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26">
-        <v>270104001</v>
-      </c>
-      <c r="J26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1402,23 +1504,26 @@
       <c r="E27" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="6">
+        <v>28.081646252894</v>
+      </c>
+      <c r="G27">
+        <v>270104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <v>270104001</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="4">
         <v>0.28081646252893999</v>
       </c>
-      <c r="G27">
-        <v>270104</v>
-      </c>
-      <c r="H27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27">
-        <v>270104001</v>
-      </c>
-      <c r="J27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1434,23 +1539,26 @@
       <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="6">
+        <v>38.390404827198402</v>
+      </c>
+      <c r="G28">
+        <v>270104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28">
+        <v>270104001</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="4">
         <v>0.38390404827198399</v>
       </c>
-      <c r="G28">
-        <v>270104</v>
-      </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28">
-        <v>270104001</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1466,23 +1574,26 @@
       <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="6">
+        <v>24.9285171238926</v>
+      </c>
+      <c r="G29">
+        <v>270104</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>270104001</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="4">
         <v>0.24928517123892599</v>
       </c>
-      <c r="G29">
-        <v>270104</v>
-      </c>
-      <c r="H29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29">
-        <v>270104001</v>
-      </c>
-      <c r="J29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1498,23 +1609,26 @@
       <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="6">
+        <v>21.794223045402699</v>
+      </c>
+      <c r="G30">
+        <v>270104</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30">
+        <v>270104001</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="4">
         <v>0.217942230454027</v>
       </c>
-      <c r="G30">
-        <v>270104</v>
-      </c>
-      <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30">
-        <v>270104001</v>
-      </c>
-      <c r="J30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1530,23 +1644,26 @@
       <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="6">
+        <v>23.397448255533</v>
+      </c>
+      <c r="G31">
+        <v>270104</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31">
+        <v>270104001</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="4">
         <v>0.23397448255532999</v>
       </c>
-      <c r="G31">
-        <v>270104</v>
-      </c>
-      <c r="H31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31">
-        <v>270104001</v>
-      </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1562,23 +1679,26 @@
       <c r="E32" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="6">
+        <v>35.360900867638897</v>
+      </c>
+      <c r="G32">
+        <v>270104</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32">
+        <v>270104001</v>
+      </c>
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="4">
         <v>0.353609008676389</v>
       </c>
-      <c r="G32">
-        <v>270104</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32">
-        <v>270104001</v>
-      </c>
-      <c r="J32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1594,23 +1714,26 @@
       <c r="E33" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="6">
+        <v>40.570420114741303</v>
+      </c>
+      <c r="G33">
+        <v>270104</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>270104001</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="4">
         <v>0.40570420114741301</v>
       </c>
-      <c r="G33">
-        <v>270104</v>
-      </c>
-      <c r="H33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33">
-        <v>270104001</v>
-      </c>
-      <c r="J33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1626,23 +1749,26 @@
       <c r="E34" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="6">
+        <v>41.143609224806603</v>
+      </c>
+      <c r="G34">
+        <v>270104</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34">
+        <v>270104001</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="4">
         <v>0.41143609224806599</v>
       </c>
-      <c r="G34">
-        <v>270104</v>
-      </c>
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34">
-        <v>270104001</v>
-      </c>
-      <c r="J34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1658,23 +1784,26 @@
       <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="6">
+        <v>11.6771275613808</v>
+      </c>
+      <c r="G35">
+        <v>270104</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35">
+        <v>270104001</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="4">
         <v>0.116771275613808</v>
       </c>
-      <c r="G35">
-        <v>270104</v>
-      </c>
-      <c r="H35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35">
-        <v>270104001</v>
-      </c>
-      <c r="J35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1690,23 +1819,26 @@
       <c r="E36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="6">
+        <v>23.5410596143143</v>
+      </c>
+      <c r="G36">
+        <v>270104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36">
+        <v>270104001</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="4">
         <v>0.235410596143143</v>
       </c>
-      <c r="G36">
-        <v>270104</v>
-      </c>
-      <c r="H36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36">
-        <v>270104001</v>
-      </c>
-      <c r="J36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1722,23 +1854,26 @@
       <c r="E37" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="6">
+        <v>19.745809791401499</v>
+      </c>
+      <c r="G37">
+        <v>270104</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37">
+        <v>270104001</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="4">
         <v>0.197458097914015</v>
       </c>
-      <c r="G37">
-        <v>270104</v>
-      </c>
-      <c r="H37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37">
-        <v>270104001</v>
-      </c>
-      <c r="J37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1754,23 +1889,26 @@
       <c r="E38" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="6">
+        <v>24.291399108664201</v>
+      </c>
+      <c r="G38">
+        <v>270104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38">
+        <v>270104001</v>
+      </c>
+      <c r="J38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="4">
         <v>0.24291399108664199</v>
       </c>
-      <c r="G38">
-        <v>270104</v>
-      </c>
-      <c r="H38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38">
-        <v>270104001</v>
-      </c>
-      <c r="J38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1786,23 +1924,26 @@
       <c r="E39" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="6">
+        <v>17.7817215435749</v>
+      </c>
+      <c r="G39">
+        <v>270104</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <v>270104001</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="4">
         <v>0.17781721543574899</v>
       </c>
-      <c r="G39">
-        <v>270104</v>
-      </c>
-      <c r="H39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39">
-        <v>270104001</v>
-      </c>
-      <c r="J39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1818,23 +1959,26 @@
       <c r="E40" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="6">
+        <v>47.980869252333598</v>
+      </c>
+      <c r="G40">
+        <v>270104</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40">
+        <v>270104001</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="4">
         <v>0.47980869252333602</v>
       </c>
-      <c r="G40">
-        <v>270104</v>
-      </c>
-      <c r="H40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40">
-        <v>270104001</v>
-      </c>
-      <c r="J40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1850,23 +1994,26 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="6">
+        <v>17.856131957664299</v>
+      </c>
+      <c r="G41">
+        <v>270104</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41">
+        <v>270104001</v>
+      </c>
+      <c r="J41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="4">
         <v>0.17856131957664301</v>
       </c>
-      <c r="G41">
-        <v>270104</v>
-      </c>
-      <c r="H41" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41">
-        <v>270104001</v>
-      </c>
-      <c r="J41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1882,23 +2029,26 @@
       <c r="E42" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="6">
+        <v>14.3177434295177</v>
+      </c>
+      <c r="G42">
+        <v>270104</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42">
+        <v>270104001</v>
+      </c>
+      <c r="J42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="4">
         <v>0.14317743429517699</v>
       </c>
-      <c r="G42">
-        <v>270104</v>
-      </c>
-      <c r="H42" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42">
-        <v>270104001</v>
-      </c>
-      <c r="J42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1914,23 +2064,26 @@
       <c r="E43" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="6">
+        <v>25.522277383377102</v>
+      </c>
+      <c r="G43">
+        <v>270104</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43">
+        <v>270104001</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="4">
         <v>0.25522277383377101</v>
       </c>
-      <c r="G43">
-        <v>270104</v>
-      </c>
-      <c r="H43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43">
-        <v>270104001</v>
-      </c>
-      <c r="J43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1946,23 +2099,26 @@
       <c r="E44" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="6">
+        <v>43.892757660167099</v>
+      </c>
+      <c r="G44">
+        <v>270104</v>
+      </c>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44">
+        <v>270104001</v>
+      </c>
+      <c r="J44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="4">
         <v>0.43892757660167098</v>
       </c>
-      <c r="G44">
-        <v>270104</v>
-      </c>
-      <c r="H44" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44">
-        <v>270104001</v>
-      </c>
-      <c r="J44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -1978,23 +2134,26 @@
       <c r="E45" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="6">
+        <v>26.4354616450549</v>
+      </c>
+      <c r="G45">
+        <v>270104</v>
+      </c>
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <v>270104001</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="4">
         <v>0.26435461645054897</v>
       </c>
-      <c r="G45">
-        <v>270104</v>
-      </c>
-      <c r="H45" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45">
-        <v>270104001</v>
-      </c>
-      <c r="J45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2010,23 +2169,26 @@
       <c r="E46" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="6">
+        <v>52.043669754382996</v>
+      </c>
+      <c r="G46">
+        <v>270104</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <v>270104001</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="4">
         <v>0.52043669754383004</v>
       </c>
-      <c r="G46">
-        <v>270104</v>
-      </c>
-      <c r="H46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46">
-        <v>270104001</v>
-      </c>
-      <c r="J46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2042,23 +2204,26 @@
       <c r="E47" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="6">
+        <v>24.739938526558401</v>
+      </c>
+      <c r="G47">
+        <v>270104</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <v>270104001</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="4">
         <v>0.247399385265584</v>
       </c>
-      <c r="G47">
-        <v>270104</v>
-      </c>
-      <c r="H47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47">
-        <v>270104001</v>
-      </c>
-      <c r="J47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2074,23 +2239,26 @@
       <c r="E48" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="6">
+        <v>15.5606312988527</v>
+      </c>
+      <c r="G48">
+        <v>270104</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48">
+        <v>270104001</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="4">
         <v>0.15560631298852701</v>
       </c>
-      <c r="G48">
-        <v>270104</v>
-      </c>
-      <c r="H48" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48">
-        <v>270104001</v>
-      </c>
-      <c r="J48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2106,23 +2274,26 @@
       <c r="E49" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="6">
+        <v>26.0093174591284</v>
+      </c>
+      <c r="G49">
+        <v>270104</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49">
+        <v>270104001</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="4">
         <v>0.260093174591284</v>
       </c>
-      <c r="G49">
-        <v>270104</v>
-      </c>
-      <c r="H49" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49">
-        <v>270104001</v>
-      </c>
-      <c r="J49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2138,23 +2309,26 @@
       <c r="E50" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="6">
+        <v>36.802336327677303</v>
+      </c>
+      <c r="G50">
+        <v>270104</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50">
+        <v>270104001</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="4">
         <v>0.36802336327677299</v>
       </c>
-      <c r="G50">
-        <v>270104</v>
-      </c>
-      <c r="H50" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50">
-        <v>270104001</v>
-      </c>
-      <c r="J50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -2170,23 +2344,26 @@
       <c r="E51" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="6">
+        <v>29.1525020903476</v>
+      </c>
+      <c r="G51">
+        <v>270104</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51">
+        <v>270104001</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="4">
         <v>0.29152502090347598</v>
       </c>
-      <c r="G51">
-        <v>270104</v>
-      </c>
-      <c r="H51" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51">
-        <v>270104001</v>
-      </c>
-      <c r="J51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -2202,23 +2379,26 @@
       <c r="E52" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="6">
+        <v>40.625401793081501</v>
+      </c>
+      <c r="G52">
+        <v>270104</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52">
+        <v>270104001</v>
+      </c>
+      <c r="J52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="4">
         <v>0.406254017930815</v>
       </c>
-      <c r="G52">
-        <v>270104</v>
-      </c>
-      <c r="H52" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52">
-        <v>270104001</v>
-      </c>
-      <c r="J52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -2234,23 +2414,26 @@
       <c r="E53" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="6">
+        <v>20.098332778825199</v>
+      </c>
+      <c r="G53">
+        <v>270104</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53">
+        <v>270104001</v>
+      </c>
+      <c r="J53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="4">
         <v>0.20098332778825201</v>
       </c>
-      <c r="G53">
-        <v>270104</v>
-      </c>
-      <c r="H53" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53">
-        <v>270104001</v>
-      </c>
-      <c r="J53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -2266,23 +2449,26 @@
       <c r="E54" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="6">
+        <v>16.542906818619802</v>
+      </c>
+      <c r="G54">
+        <v>270104</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54">
+        <v>270104001</v>
+      </c>
+      <c r="J54" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="4">
         <v>0.16542906818619799</v>
       </c>
-      <c r="G54">
-        <v>270104</v>
-      </c>
-      <c r="H54" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54">
-        <v>270104001</v>
-      </c>
-      <c r="J54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -2298,23 +2484,26 @@
       <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="6">
+        <v>24.5311496472026</v>
+      </c>
+      <c r="G55">
+        <v>270104</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55">
+        <v>270104001</v>
+      </c>
+      <c r="J55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="4">
         <v>0.24531149647202599</v>
       </c>
-      <c r="G55">
-        <v>270104</v>
-      </c>
-      <c r="H55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55">
-        <v>270104001</v>
-      </c>
-      <c r="J55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2330,23 +2519,26 @@
       <c r="E56" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="6">
+        <v>35.927009948168497</v>
+      </c>
+      <c r="G56">
+        <v>270104</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56">
+        <v>270104001</v>
+      </c>
+      <c r="J56" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="4">
         <v>0.35927009948168498</v>
       </c>
-      <c r="G56">
-        <v>270104</v>
-      </c>
-      <c r="H56" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56">
-        <v>270104001</v>
-      </c>
-      <c r="J56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2362,23 +2554,26 @@
       <c r="E57" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="6">
+        <v>17.2556852333141</v>
+      </c>
+      <c r="G57">
+        <v>270104</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57">
+        <v>270104001</v>
+      </c>
+      <c r="J57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="4">
         <v>0.172556852333141</v>
       </c>
-      <c r="G57">
-        <v>270104</v>
-      </c>
-      <c r="H57" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57">
-        <v>270104001</v>
-      </c>
-      <c r="J57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2394,23 +2589,26 @@
       <c r="E58" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="6">
+        <v>30.600693931077402</v>
+      </c>
+      <c r="G58">
+        <v>270104</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58">
+        <v>270104001</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="4">
         <v>0.306006939310774</v>
       </c>
-      <c r="G58">
-        <v>270104</v>
-      </c>
-      <c r="H58" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58">
-        <v>270104001</v>
-      </c>
-      <c r="J58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2426,23 +2624,26 @@
       <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="6">
+        <v>25.479460700395201</v>
+      </c>
+      <c r="G59">
+        <v>270104</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59">
+        <v>270104001</v>
+      </c>
+      <c r="J59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="4">
         <v>0.25479460700395201</v>
       </c>
-      <c r="G59">
-        <v>270104</v>
-      </c>
-      <c r="H59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59">
-        <v>270104001</v>
-      </c>
-      <c r="J59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2458,23 +2659,26 @@
       <c r="E60" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="6">
+        <v>12.6445260341152</v>
+      </c>
+      <c r="G60">
+        <v>270104</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60">
+        <v>270104001</v>
+      </c>
+      <c r="J60" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" s="4">
         <v>0.126445260341152</v>
       </c>
-      <c r="G60">
-        <v>270104</v>
-      </c>
-      <c r="H60" t="s">
-        <v>23</v>
-      </c>
-      <c r="I60">
-        <v>270104001</v>
-      </c>
-      <c r="J60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2490,23 +2694,26 @@
       <c r="E61" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="6">
+        <v>15.9024431398104</v>
+      </c>
+      <c r="G61">
+        <v>270104</v>
+      </c>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61">
+        <v>270104001</v>
+      </c>
+      <c r="J61" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="4">
         <v>0.15902443139810399</v>
       </c>
-      <c r="G61">
-        <v>270104</v>
-      </c>
-      <c r="H61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61">
-        <v>270104001</v>
-      </c>
-      <c r="J61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -2522,23 +2729,26 @@
       <c r="E62" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="6">
+        <v>13.637899574238</v>
+      </c>
+      <c r="G62">
+        <v>270104</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62">
+        <v>270104001</v>
+      </c>
+      <c r="J62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="4">
         <v>0.13637899574237999</v>
       </c>
-      <c r="G62">
-        <v>270104</v>
-      </c>
-      <c r="H62" t="s">
-        <v>23</v>
-      </c>
-      <c r="I62">
-        <v>270104001</v>
-      </c>
-      <c r="J62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -2554,23 +2764,26 @@
       <c r="E63" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="6">
+        <v>25.003951613525</v>
+      </c>
+      <c r="G63">
+        <v>270104</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63">
+        <v>270104001</v>
+      </c>
+      <c r="J63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="4">
         <v>0.25003951613525</v>
       </c>
-      <c r="G63">
-        <v>270104</v>
-      </c>
-      <c r="H63" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63">
-        <v>270104001</v>
-      </c>
-      <c r="J63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -2586,23 +2799,26 @@
       <c r="E64" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="6">
+        <v>40.694932763342599</v>
+      </c>
+      <c r="G64">
+        <v>270104</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64">
+        <v>270104001</v>
+      </c>
+      <c r="J64" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64" s="4">
         <v>0.40694932763342601</v>
       </c>
-      <c r="G64">
-        <v>270104</v>
-      </c>
-      <c r="H64" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64">
-        <v>270104001</v>
-      </c>
-      <c r="J64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2618,23 +2834,26 @@
       <c r="E65" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="6">
+        <v>7.8326687842130198</v>
+      </c>
+      <c r="G65">
+        <v>270104</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65">
+        <v>270104001</v>
+      </c>
+      <c r="J65" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" s="4">
         <v>7.8326687842130205E-2</v>
       </c>
-      <c r="G65">
-        <v>270104</v>
-      </c>
-      <c r="H65" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65">
-        <v>270104001</v>
-      </c>
-      <c r="J65" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -2650,23 +2869,26 @@
       <c r="E66" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="6">
+        <v>14.7435932501333</v>
+      </c>
+      <c r="G66">
+        <v>270104</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66">
+        <v>270104001</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="4">
         <v>0.14743593250133299</v>
       </c>
-      <c r="G66">
-        <v>270104</v>
-      </c>
-      <c r="H66" t="s">
-        <v>23</v>
-      </c>
-      <c r="I66">
-        <v>270104001</v>
-      </c>
-      <c r="J66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2682,23 +2904,26 @@
       <c r="E67" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="6">
+        <v>19.565832211701899</v>
+      </c>
+      <c r="G67">
+        <v>270104</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67">
+        <v>270104001</v>
+      </c>
+      <c r="J67" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="4">
         <v>0.195658322117019</v>
       </c>
-      <c r="G67">
-        <v>270104</v>
-      </c>
-      <c r="H67" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67">
-        <v>270104001</v>
-      </c>
-      <c r="J67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2714,23 +2939,26 @@
       <c r="E68" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="6">
+        <v>20.843754785360598</v>
+      </c>
+      <c r="G68">
+        <v>270104</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68">
+        <v>270104001</v>
+      </c>
+      <c r="J68" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" s="4">
         <v>0.20843754785360599</v>
       </c>
-      <c r="G68">
-        <v>270104</v>
-      </c>
-      <c r="H68" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68">
-        <v>270104001</v>
-      </c>
-      <c r="J68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2746,23 +2974,26 @@
       <c r="E69" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="6">
+        <v>22.510493934862001</v>
+      </c>
+      <c r="G69">
+        <v>270104</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69">
+        <v>270104001</v>
+      </c>
+      <c r="J69" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" s="4">
         <v>0.22510493934862</v>
       </c>
-      <c r="G69">
-        <v>270104</v>
-      </c>
-      <c r="H69" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69">
-        <v>270104001</v>
-      </c>
-      <c r="J69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2778,23 +3009,26 @@
       <c r="E70" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="6">
+        <v>35.442062806148002</v>
+      </c>
+      <c r="G70">
+        <v>270104</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70">
+        <v>270104001</v>
+      </c>
+      <c r="J70" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="4">
         <v>0.35442062806148</v>
       </c>
-      <c r="G70">
-        <v>270104</v>
-      </c>
-      <c r="H70" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70">
-        <v>270104001</v>
-      </c>
-      <c r="J70" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2810,23 +3044,26 @@
       <c r="E71" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="6">
+        <v>11.2398550354755</v>
+      </c>
+      <c r="G71">
+        <v>270104</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71">
+        <v>270104001</v>
+      </c>
+      <c r="J71" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="4">
         <v>0.112398550354755</v>
       </c>
-      <c r="G71">
-        <v>270104</v>
-      </c>
-      <c r="H71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I71">
-        <v>270104001</v>
-      </c>
-      <c r="J71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2842,23 +3079,26 @@
       <c r="E72" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="6">
+        <v>13.880182691612699</v>
+      </c>
+      <c r="G72">
+        <v>270104</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72">
+        <v>270104001</v>
+      </c>
+      <c r="J72" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" s="4">
         <v>0.138801826916127</v>
       </c>
-      <c r="G72">
-        <v>270104</v>
-      </c>
-      <c r="H72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72">
-        <v>270104001</v>
-      </c>
-      <c r="J72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -2874,23 +3114,26 @@
       <c r="E73" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="6">
+        <v>14.563893733426299</v>
+      </c>
+      <c r="G73">
+        <v>270104</v>
+      </c>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73">
+        <v>270104001</v>
+      </c>
+      <c r="J73" t="s">
+        <v>24</v>
+      </c>
+      <c r="K73" s="4">
         <v>0.145638937334263</v>
       </c>
-      <c r="G73">
-        <v>270104</v>
-      </c>
-      <c r="H73" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73">
-        <v>270104001</v>
-      </c>
-      <c r="J73" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2906,23 +3149,26 @@
       <c r="E74" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="6">
+        <v>32.179403633053603</v>
+      </c>
+      <c r="G74">
+        <v>270104</v>
+      </c>
+      <c r="H74" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74">
+        <v>270104001</v>
+      </c>
+      <c r="J74" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" s="4">
         <v>0.32179403633053599</v>
       </c>
-      <c r="G74">
-        <v>270104</v>
-      </c>
-      <c r="H74" t="s">
-        <v>23</v>
-      </c>
-      <c r="I74">
-        <v>270104001</v>
-      </c>
-      <c r="J74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2938,23 +3184,26 @@
       <c r="E75" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="6">
+        <v>50.332682001537499</v>
+      </c>
+      <c r="G75">
+        <v>270104</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75">
+        <v>270104001</v>
+      </c>
+      <c r="J75" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" s="4">
         <v>0.50332682001537499</v>
       </c>
-      <c r="G75">
-        <v>270104</v>
-      </c>
-      <c r="H75" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75">
-        <v>270104001</v>
-      </c>
-      <c r="J75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2970,23 +3219,26 @@
       <c r="E76" t="s">
         <v>18</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="6">
+        <v>40.3888205714062</v>
+      </c>
+      <c r="G76">
+        <v>270104</v>
+      </c>
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76">
+        <v>270104001</v>
+      </c>
+      <c r="J76" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" s="4">
         <v>0.40388820571406198</v>
       </c>
-      <c r="G76">
-        <v>270104</v>
-      </c>
-      <c r="H76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76">
-        <v>270104001</v>
-      </c>
-      <c r="J76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -3002,23 +3254,26 @@
       <c r="E77" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="6">
+        <v>15.912477286642201</v>
+      </c>
+      <c r="G77">
+        <v>270104</v>
+      </c>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77">
+        <v>270104001</v>
+      </c>
+      <c r="J77" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" s="4">
         <v>0.15912477286642199</v>
       </c>
-      <c r="G77">
-        <v>270104</v>
-      </c>
-      <c r="H77" t="s">
-        <v>23</v>
-      </c>
-      <c r="I77">
-        <v>270104001</v>
-      </c>
-      <c r="J77" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -3034,23 +3289,26 @@
       <c r="E78" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="6">
+        <v>24.851321495500699</v>
+      </c>
+      <c r="G78">
+        <v>270104</v>
+      </c>
+      <c r="H78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78">
+        <v>270104001</v>
+      </c>
+      <c r="J78" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" s="4">
         <v>0.248513214955007</v>
       </c>
-      <c r="G78">
-        <v>270104</v>
-      </c>
-      <c r="H78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I78">
-        <v>270104001</v>
-      </c>
-      <c r="J78" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3066,23 +3324,26 @@
       <c r="E79" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="6">
+        <v>19.304121145856701</v>
+      </c>
+      <c r="G79">
+        <v>270104</v>
+      </c>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79">
+        <v>270104001</v>
+      </c>
+      <c r="J79" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" s="4">
         <v>0.19304121145856701</v>
       </c>
-      <c r="G79">
-        <v>270104</v>
-      </c>
-      <c r="H79" t="s">
-        <v>23</v>
-      </c>
-      <c r="I79">
-        <v>270104001</v>
-      </c>
-      <c r="J79" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3098,23 +3359,26 @@
       <c r="E80" t="s">
         <v>18</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="6">
+        <v>29.532562536809198</v>
+      </c>
+      <c r="G80">
+        <v>270104</v>
+      </c>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80">
+        <v>270104001</v>
+      </c>
+      <c r="J80" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="4">
         <v>0.29532562536809198</v>
       </c>
-      <c r="G80">
-        <v>270104</v>
-      </c>
-      <c r="H80" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80">
-        <v>270104001</v>
-      </c>
-      <c r="J80" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3130,23 +3394,26 @@
       <c r="E81" t="s">
         <v>18</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="6">
+        <v>23.9474422669457</v>
+      </c>
+      <c r="G81">
+        <v>270104</v>
+      </c>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81">
+        <v>270104001</v>
+      </c>
+      <c r="J81" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" s="4">
         <v>0.23947442266945701</v>
       </c>
-      <c r="G81">
-        <v>270104</v>
-      </c>
-      <c r="H81" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81">
-        <v>270104001</v>
-      </c>
-      <c r="J81" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -3162,23 +3429,26 @@
       <c r="E82" t="s">
         <v>18</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="6">
+        <v>43.6119649513452</v>
+      </c>
+      <c r="G82">
+        <v>270104</v>
+      </c>
+      <c r="H82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82">
+        <v>270104001</v>
+      </c>
+      <c r="J82" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" s="4">
         <v>0.436119649513452</v>
       </c>
-      <c r="G82">
-        <v>270104</v>
-      </c>
-      <c r="H82" t="s">
-        <v>23</v>
-      </c>
-      <c r="I82">
-        <v>270104001</v>
-      </c>
-      <c r="J82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -3194,23 +3464,26 @@
       <c r="E83" t="s">
         <v>17</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="6">
+        <v>22.750379715445899</v>
+      </c>
+      <c r="G83">
+        <v>270104</v>
+      </c>
+      <c r="H83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83">
+        <v>270104001</v>
+      </c>
+      <c r="J83" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="4">
         <v>0.22750379715445901</v>
       </c>
-      <c r="G83">
-        <v>270104</v>
-      </c>
-      <c r="H83" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83">
-        <v>270104001</v>
-      </c>
-      <c r="J83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -3226,23 +3499,26 @@
       <c r="E84" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="6">
+        <v>13.0800585671285</v>
+      </c>
+      <c r="G84">
+        <v>270104</v>
+      </c>
+      <c r="H84" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84">
+        <v>270104001</v>
+      </c>
+      <c r="J84" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" s="4">
         <v>0.130800585671285</v>
       </c>
-      <c r="G84">
-        <v>270104</v>
-      </c>
-      <c r="H84" t="s">
-        <v>23</v>
-      </c>
-      <c r="I84">
-        <v>270104001</v>
-      </c>
-      <c r="J84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -3258,23 +3534,26 @@
       <c r="E85" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="6">
+        <v>20.761878100155599</v>
+      </c>
+      <c r="G85">
+        <v>270104</v>
+      </c>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85">
+        <v>270104001</v>
+      </c>
+      <c r="J85" t="s">
+        <v>24</v>
+      </c>
+      <c r="K85" s="4">
         <v>0.20761878100155601</v>
       </c>
-      <c r="G85">
-        <v>270104</v>
-      </c>
-      <c r="H85" t="s">
-        <v>23</v>
-      </c>
-      <c r="I85">
-        <v>270104001</v>
-      </c>
-      <c r="J85" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -3290,23 +3569,26 @@
       <c r="E86" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="6">
+        <v>41.9787857825213</v>
+      </c>
+      <c r="G86">
+        <v>270104</v>
+      </c>
+      <c r="H86" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86">
+        <v>270104001</v>
+      </c>
+      <c r="J86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" s="4">
         <v>0.419787857825213</v>
       </c>
-      <c r="G86">
-        <v>270104</v>
-      </c>
-      <c r="H86" t="s">
-        <v>23</v>
-      </c>
-      <c r="I86">
-        <v>270104001</v>
-      </c>
-      <c r="J86" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3322,23 +3604,26 @@
       <c r="E87" t="s">
         <v>18</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="6">
+        <v>26.076916811071602</v>
+      </c>
+      <c r="G87">
+        <v>270104</v>
+      </c>
+      <c r="H87" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87">
+        <v>270104001</v>
+      </c>
+      <c r="J87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87" s="4">
         <v>0.26076916811071599</v>
       </c>
-      <c r="G87">
-        <v>270104</v>
-      </c>
-      <c r="H87" t="s">
-        <v>23</v>
-      </c>
-      <c r="I87">
-        <v>270104001</v>
-      </c>
-      <c r="J87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3354,23 +3639,26 @@
       <c r="E88" t="s">
         <v>18</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="6">
+        <v>49.891653765509602</v>
+      </c>
+      <c r="G88">
+        <v>270104</v>
+      </c>
+      <c r="H88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88">
+        <v>270104001</v>
+      </c>
+      <c r="J88" t="s">
+        <v>24</v>
+      </c>
+      <c r="K88" s="4">
         <v>0.49891653765509603</v>
       </c>
-      <c r="G88">
-        <v>270104</v>
-      </c>
-      <c r="H88" t="s">
-        <v>23</v>
-      </c>
-      <c r="I88">
-        <v>270104001</v>
-      </c>
-      <c r="J88" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -3386,23 +3674,26 @@
       <c r="E89" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="6">
+        <v>19.796093158085501</v>
+      </c>
+      <c r="G89">
+        <v>270104</v>
+      </c>
+      <c r="H89" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89">
+        <v>270104001</v>
+      </c>
+      <c r="J89" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" s="4">
         <v>0.19796093158085501</v>
       </c>
-      <c r="G89">
-        <v>270104</v>
-      </c>
-      <c r="H89" t="s">
-        <v>23</v>
-      </c>
-      <c r="I89">
-        <v>270104001</v>
-      </c>
-      <c r="J89" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -3418,23 +3709,26 @@
       <c r="E90" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="6">
+        <v>16.5128340186881</v>
+      </c>
+      <c r="G90">
+        <v>270104</v>
+      </c>
+      <c r="H90" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90">
+        <v>270104001</v>
+      </c>
+      <c r="J90" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" s="4">
         <v>0.165128340186881</v>
       </c>
-      <c r="G90">
-        <v>270104</v>
-      </c>
-      <c r="H90" t="s">
-        <v>23</v>
-      </c>
-      <c r="I90">
-        <v>270104001</v>
-      </c>
-      <c r="J90" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3450,23 +3744,26 @@
       <c r="E91" t="s">
         <v>17</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="6">
+        <v>28.970223561143499</v>
+      </c>
+      <c r="G91">
+        <v>270104</v>
+      </c>
+      <c r="H91" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91">
+        <v>270104001</v>
+      </c>
+      <c r="J91" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91" s="4">
         <v>0.28970223561143499</v>
       </c>
-      <c r="G91">
-        <v>270104</v>
-      </c>
-      <c r="H91" t="s">
-        <v>23</v>
-      </c>
-      <c r="I91">
-        <v>270104001</v>
-      </c>
-      <c r="J91" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -3482,23 +3779,26 @@
       <c r="E92" t="s">
         <v>18</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="6">
+        <v>34.692627108049997</v>
+      </c>
+      <c r="G92">
+        <v>270104</v>
+      </c>
+      <c r="H92" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92">
+        <v>270104001</v>
+      </c>
+      <c r="J92" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="4">
         <v>0.3469262710805</v>
       </c>
-      <c r="G92">
-        <v>270104</v>
-      </c>
-      <c r="H92" t="s">
-        <v>23</v>
-      </c>
-      <c r="I92">
-        <v>270104001</v>
-      </c>
-      <c r="J92" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -3514,20 +3814,23 @@
       <c r="E93" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="6">
+        <v>22.6643315693047</v>
+      </c>
+      <c r="G93">
+        <v>270104</v>
+      </c>
+      <c r="H93" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93">
+        <v>270104001</v>
+      </c>
+      <c r="J93" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93" s="4">
         <v>0.22664331569304699</v>
-      </c>
-      <c r="G93">
-        <v>270104</v>
-      </c>
-      <c r="H93" t="s">
-        <v>23</v>
-      </c>
-      <c r="I93">
-        <v>270104001</v>
-      </c>
-      <c r="J93" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
